--- a/medicine/Enfance/Michèle_Gavazzi/Michèle_Gavazzi.xlsx
+++ b/medicine/Enfance/Michèle_Gavazzi/Michèle_Gavazzi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mich%C3%A8le_Gavazzi</t>
+          <t>Michèle_Gavazzi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michèle Gavazzi, née le 19 janvier 1973 à Montevideo en Uruguay, est une écrivaine québécoise de littérature jeunesse, vivant dans la région de l'Outaouais.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mich%C3%A8le_Gavazzi</t>
+          <t>Michèle_Gavazzi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michèle Gavazzi naît le 19 janvier 1973 à Montevideo, Uruguay. Un an plus tard, sa famille déménage en Italie, pays d'origine de son père, avant de déménager à nouveau pour s'installer au Québec en 1976. Elle y grandit et, sous l’insistance de ses parents, étudie les sciences pures au Cégep de l'Outaouais[1], puis obtient un baccalauréat ès arts en langues et littératures modernes à l'Université d'Ottawa en 1998. C'est grâce à ses enfants qu'elle commence à écrire, en 2005, car elle veut leur montrer un différent genre de roman[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michèle Gavazzi naît le 19 janvier 1973 à Montevideo, Uruguay. Un an plus tard, sa famille déménage en Italie, pays d'origine de son père, avant de déménager à nouveau pour s'installer au Québec en 1976. Elle y grandit et, sous l’insistance de ses parents, étudie les sciences pures au Cégep de l'Outaouais, puis obtient un baccalauréat ès arts en langues et littératures modernes à l'Université d'Ottawa en 1998. C'est grâce à ses enfants qu'elle commence à écrire, en 2005, car elle veut leur montrer un différent genre de roman,.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mich%C3%A8le_Gavazzi</t>
+          <t>Michèle_Gavazzi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michèle Gavazzi gagne le prix Jeunesse des univers parallèles en 2008 pour son roman Nessy Names. La Malédiction des Tiens[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michèle Gavazzi gagne le prix Jeunesse des univers parallèles en 2008 pour son roman Nessy Names. La Malédiction des Tiens,.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mich%C3%A8le_Gavazzi</t>
+          <t>Michèle_Gavazzi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,20 +591,127 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Série Nessy Names
-La Malédiction de Tiens, Porte-bonheur, 2006
+          <t>Série Nessy Names</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Malédiction de Tiens, Porte-bonheur, 2006
 La Terre sans mal, Porte-bonheur, 2007
-Le Pachakuti, Porte-bonheur, 2007
-Série Eva, elfe des eaux
-L'Héritage d'Isabella, Porte-bonheur, 2008
+Le Pachakuti, Porte-bonheur, 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Michèle_Gavazzi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mich%C3%A8le_Gavazzi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Eva, elfe des eaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'Héritage d'Isabella, Porte-bonheur, 2008
 Le Plan de Ka'al, Porte-bonheur, 2008
-Le Fils de Gaëlle, Porte-bonheur, 2008
-Série Iris
-La Prophétie de la tisserande, Porte-bonheur, 2009
+Le Fils de Gaëlle, Porte-bonheur, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Michèle_Gavazzi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mich%C3%A8le_Gavazzi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Iris</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Prophétie de la tisserande, Porte-bonheur, 2009
 Les Artisans de vie, Porte-bonheur, 2009
-La Prison du Chaos, Porte-bonheur, 2009
-Série Aria
-La Cigüe, Porte-bonheur, 2010
+La Prison du Chaos, Porte-bonheur, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Michèle_Gavazzi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mich%C3%A8le_Gavazzi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Aria</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Cigüe, Porte-bonheur, 2010
 Les Apôtres de Frank, Porte-bonheur, 2010
 Immortalité, Porte-bonheur, 2010</t>
         </is>
